--- a/BDD_FILMS.xlsx
+++ b/BDD_FILMS.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="3410" documentId="8_{A28A4F60-FC73-431E-9581-F8FD3A51F875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD969CDE-C8DB-45C3-B099-65FAADC633EF}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{EA836373-7464-47F7-A280-51CE722A9FD2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EA836373-7464-47F7-A280-51CE722A9FD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau" sheetId="1" r:id="rId1"/>
@@ -5694,10 +5694,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6083,10 +6079,10 @@
   <dimension ref="A1:BB199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C182" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C164" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AI202" sqref="AI202"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/BDD_FILMS.xlsx
+++ b/BDD_FILMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1DA722FFA659BF72/CINEMA/STREAMLIT_CINE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3410" documentId="8_{A28A4F60-FC73-431E-9581-F8FD3A51F875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD969CDE-C8DB-45C3-B099-65FAADC633EF}"/>
+  <xr:revisionPtr revIDLastSave="3457" documentId="8_{A28A4F60-FC73-431E-9581-F8FD3A51F875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D121A2C3-6A30-4408-AEC7-ED0899FB7A16}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EA836373-7464-47F7-A280-51CE722A9FD2}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3922" uniqueCount="1847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3941" uniqueCount="1856">
   <si>
     <t>Vu le</t>
   </si>
@@ -5582,6 +5582,33 @@
   </si>
   <si>
     <t>Un vrai bon film ! Assez touchant avec peu de dialogues. La volonté de vengeance d'un homme est bien retranscrite. J'ai bien aimé aussi sa pudeur à la fin du film lorsqu'il retrouve son ami, il vient de perdre sa femme et sa fille, mais il n'ose dévoiler ses sentiments, c'est fort.</t>
+  </si>
+  <si>
+    <t>Requiem for a Dream</t>
+  </si>
+  <si>
+    <t>Darren Aronofsky</t>
+  </si>
+  <si>
+    <t>Darren Aronofsky, Hubert Selby Jr.</t>
+  </si>
+  <si>
+    <t>Thousand Words, Protozoa Pictures</t>
+  </si>
+  <si>
+    <t>Ellen Burstyn</t>
+  </si>
+  <si>
+    <t>Ellen Burstyn, Jared Leto, Jennifer Connelly, Marlon Wayans</t>
+  </si>
+  <si>
+    <t>Clint Mansell, le Kronos Quartet</t>
+  </si>
+  <si>
+    <t>Glauque</t>
+  </si>
+  <si>
+    <t>Ce film est tellement glauque. La décadence des personnages à cause de leur addiction est parfaitement retranscrite et le dernier quart du long-métrage est insoutenable. Les 4 protagonistes sont tout simplement excellents. De plus, la réalisation est, au-delà de l'originalité, vraiment propre avec en leitmotiv cette musique si iconique qu'est Lux Aeterna. Un très gros film sur lequel je vais y repenser je pense.</t>
   </si>
 </sst>
 </file>
@@ -5696,9 +5723,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB487961-E1B1-4422-B2F4-01613B72541E}" name="Tableau2" displayName="Tableau2" ref="A1:BB199" totalsRowShown="0">
-  <autoFilter ref="A1:BB199" xr:uid="{CB487961-E1B1-4422-B2F4-01613B72541E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB487961-E1B1-4422-B2F4-01613B72541E}" name="Tableau2" displayName="Tableau2" ref="A1:BB200" totalsRowShown="0">
+  <autoFilter ref="A1:BB200" xr:uid="{CB487961-E1B1-4422-B2F4-01613B72541E}"/>
   <tableColumns count="54">
     <tableColumn id="1" xr3:uid="{476A81A7-910A-4B0E-9F76-385BE82BE5FF}" name="Vu le" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{05F37C7C-BD57-432A-9FEB-88B0E6B98850}" name="Nom"/>
@@ -6076,13 +6107,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A24E7E-E710-4B51-A647-CB56244F010B}">
-  <dimension ref="A1:BB199"/>
+  <dimension ref="A1:BB200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C164" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C185" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomRight" activeCell="BB201" sqref="BB201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29200,6 +29231,134 @@
       </c>
       <c r="BB199" t="s">
         <v>1837</v>
+      </c>
+    </row>
+    <row r="200" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A200" s="9">
+        <v>45782</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D200" t="s">
+        <v>1848</v>
+      </c>
+      <c r="E200">
+        <v>2000</v>
+      </c>
+      <c r="F200" s="1">
+        <v>36971</v>
+      </c>
+      <c r="G200">
+        <v>8</v>
+      </c>
+      <c r="H200">
+        <v>8</v>
+      </c>
+      <c r="J200" t="s">
+        <v>1854</v>
+      </c>
+      <c r="K200" t="s">
+        <v>61</v>
+      </c>
+      <c r="L200" t="s">
+        <v>61</v>
+      </c>
+      <c r="M200" t="s">
+        <v>48</v>
+      </c>
+      <c r="N200" t="s">
+        <v>47</v>
+      </c>
+      <c r="O200" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q200">
+        <v>101</v>
+      </c>
+      <c r="R200" t="s">
+        <v>1849</v>
+      </c>
+      <c r="T200">
+        <v>1</v>
+      </c>
+      <c r="U200">
+        <v>1</v>
+      </c>
+      <c r="V200" t="s">
+        <v>67</v>
+      </c>
+      <c r="W200" t="s">
+        <v>1850</v>
+      </c>
+      <c r="Y200">
+        <v>4.5</v>
+      </c>
+      <c r="Z200" s="10">
+        <v>45403</v>
+      </c>
+      <c r="AA200" s="10">
+        <v>228410</v>
+      </c>
+      <c r="AB200" s="10">
+        <v>24714</v>
+      </c>
+      <c r="AC200" s="10">
+        <v>94772</v>
+      </c>
+      <c r="AF200">
+        <v>7391471</v>
+      </c>
+      <c r="AG200" t="s">
+        <v>1852</v>
+      </c>
+      <c r="AH200" t="s">
+        <v>1851</v>
+      </c>
+      <c r="AJ200" t="s">
+        <v>1853</v>
+      </c>
+      <c r="AK200">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AL200">
+        <v>7.4</v>
+      </c>
+      <c r="AM200" t="s">
+        <v>813</v>
+      </c>
+      <c r="AN200" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO200" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP200">
+        <v>1</v>
+      </c>
+      <c r="AQ200" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV200">
+        <v>0</v>
+      </c>
+      <c r="AW200">
+        <v>1</v>
+      </c>
+      <c r="AX200">
+        <v>0</v>
+      </c>
+      <c r="AY200">
+        <v>1</v>
+      </c>
+      <c r="AZ200">
+        <v>0</v>
+      </c>
+      <c r="BA200">
+        <v>0</v>
+      </c>
+      <c r="BB200" t="s">
+        <v>1855</v>
       </c>
     </row>
   </sheetData>

--- a/BDD_FILMS.xlsx
+++ b/BDD_FILMS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1da722ffa659bf72/CINEMA/STREAMLIT_CINE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="8_{9F4C3959-2B33-4558-8BFF-59BF174FA787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8BC70F4-6D44-4629-93A3-055E2A6E5FB2}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="8_{9F4C3959-2B33-4558-8BFF-59BF174FA787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CEED587-E962-4177-8EB8-5E24A3FE9B6F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EA836373-7464-47F7-A280-51CE722A9FD2}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{EA836373-7464-47F7-A280-51CE722A9FD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3997" uniqueCount="1878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4019" uniqueCount="1887">
   <si>
     <t>Vu le</t>
   </si>
@@ -5668,13 +5668,40 @@
     <t>Clément</t>
   </si>
   <si>
-    <t>Je me suis vraiment ennuyé.</t>
-  </si>
-  <si>
     <t>Jules et Jim</t>
   </si>
   <si>
     <t>Etats-Unis, Royaume-Uni, France</t>
+  </si>
+  <si>
+    <t>Je me suis vraiment ennuyé. Le film a été sauvé pour moi par les plans dans cette fabuleuse ville de Rome. Mais l'histoire de l'écrivain qui assiste aux mondanités romaines ne m'a pas emballée.</t>
+  </si>
+  <si>
+    <t>Un sacré film ! Une première moitié où on est enn immersion avec le petit garçon russe dans la forêt. Le vert sapin est très présent pendant au moins une bonne heure et c'était très agréable à l'écran. C'est excellemnt bien réalisé, le jeu d'acteur du petit est exceptionnel. Une deuxième moitié sur l'inhumanité des nazis. Comme dirait Clément après la séance, une bonne petite piqûre de rappel. Quelques scènes non nécessaire comme la nazie qui dégouste sa langouste devant la ferme qui brûle mais un film de guerre très marquant et poignant aussi par son manque de musique, on est en réelle immersion pendant un peu plus de 2 heures !</t>
+  </si>
+  <si>
+    <t>Garde à vue</t>
+  </si>
+  <si>
+    <t>Claude Miller</t>
+  </si>
+  <si>
+    <t>Huit clos</t>
+  </si>
+  <si>
+    <t>Claude Miller, Jean Herman</t>
+  </si>
+  <si>
+    <t>Les Films Ariane, TF1 Productions</t>
+  </si>
+  <si>
+    <t>Lino Ventura, Michel Serrault, Romy Schneider, Guy Marchand</t>
+  </si>
+  <si>
+    <t>1982 : scénario, acteur (Michel Serrault), second rôle masculin (Guy Marchand), montage</t>
+  </si>
+  <si>
+    <t>Un policier qui fait plaisir, quasiment à huit clos, la confrontation Ventura-Serrault est savoureuse, on est vraiment dans l'intrigue pendant tout le film. Une fin un peu trop hâtive à mon goût mais un bon moment devant ce polar.</t>
   </si>
 </sst>
 </file>
@@ -5794,8 +5821,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB487961-E1B1-4422-B2F4-01613B72541E}" name="Tableau2" displayName="Tableau2" ref="A1:BB203" totalsRowShown="0">
-  <autoFilter ref="A1:BB203" xr:uid="{CB487961-E1B1-4422-B2F4-01613B72541E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB487961-E1B1-4422-B2F4-01613B72541E}" name="Tableau2" displayName="Tableau2" ref="A1:BB204" totalsRowShown="0">
+  <autoFilter ref="A1:BB204" xr:uid="{CB487961-E1B1-4422-B2F4-01613B72541E}"/>
   <tableColumns count="54">
     <tableColumn id="1" xr3:uid="{476A81A7-910A-4B0E-9F76-385BE82BE5FF}" name="Vu le" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{05F37C7C-BD57-432A-9FEB-88B0E6B98850}" name="Nom"/>
@@ -6173,13 +6200,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A24E7E-E710-4B51-A647-CB56244F010B}">
-  <dimension ref="A1:BB203"/>
+  <dimension ref="A1:BB204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C185" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C188" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M109" sqref="M109"/>
+      <selection pane="bottomRight" activeCell="AV205" sqref="AV205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19423,7 +19450,7 @@
         <v>76</v>
       </c>
       <c r="M116" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="N116" t="s">
         <v>47</v>
@@ -22464,7 +22491,7 @@
         <v>45631</v>
       </c>
       <c r="B142" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="D142" t="s">
         <v>381</v>
@@ -29669,7 +29696,7 @@
         <v>1</v>
       </c>
       <c r="BB202" t="s">
-        <v>1875</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="203" spans="1:54" x14ac:dyDescent="0.3">
@@ -29780,6 +29807,125 @@
       </c>
       <c r="BA203">
         <v>0</v>
+      </c>
+      <c r="BB203" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="204" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A204" s="9">
+        <v>45794</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D204" t="s">
+        <v>1880</v>
+      </c>
+      <c r="E204">
+        <v>1981</v>
+      </c>
+      <c r="F204" s="1">
+        <v>29852</v>
+      </c>
+      <c r="G204">
+        <v>7</v>
+      </c>
+      <c r="H204">
+        <v>7</v>
+      </c>
+      <c r="J204" t="s">
+        <v>1881</v>
+      </c>
+      <c r="K204" t="s">
+        <v>711</v>
+      </c>
+      <c r="L204" t="s">
+        <v>711</v>
+      </c>
+      <c r="M204" t="s">
+        <v>64</v>
+      </c>
+      <c r="N204" t="s">
+        <v>64</v>
+      </c>
+      <c r="O204" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q204">
+        <v>84</v>
+      </c>
+      <c r="R204" t="s">
+        <v>1882</v>
+      </c>
+      <c r="S204" t="s">
+        <v>1523</v>
+      </c>
+      <c r="T204">
+        <v>1</v>
+      </c>
+      <c r="U204">
+        <v>1</v>
+      </c>
+      <c r="V204" t="s">
+        <v>67</v>
+      </c>
+      <c r="W204" t="s">
+        <v>1883</v>
+      </c>
+      <c r="AG204" t="s">
+        <v>1884</v>
+      </c>
+      <c r="AH204" t="s">
+        <v>1434</v>
+      </c>
+      <c r="AJ204" t="s">
+        <v>386</v>
+      </c>
+      <c r="AK204">
+        <v>7.8</v>
+      </c>
+      <c r="AL204">
+        <v>7</v>
+      </c>
+      <c r="AM204" t="s">
+        <v>1237</v>
+      </c>
+      <c r="AN204" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO204" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP204">
+        <v>1</v>
+      </c>
+      <c r="AQ204" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU204" t="s">
+        <v>1885</v>
+      </c>
+      <c r="AV204">
+        <v>0</v>
+      </c>
+      <c r="AW204">
+        <v>0</v>
+      </c>
+      <c r="AX204">
+        <v>0</v>
+      </c>
+      <c r="AY204">
+        <v>0</v>
+      </c>
+      <c r="AZ204">
+        <v>4</v>
+      </c>
+      <c r="BA204">
+        <v>8</v>
+      </c>
+      <c r="BB204" t="s">
+        <v>1886</v>
       </c>
     </row>
   </sheetData>

--- a/BDD_FILMS.xlsx
+++ b/BDD_FILMS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1da722ffa659bf72/CINEMA/STREAMLIT_CINE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="8_{9F4C3959-2B33-4558-8BFF-59BF174FA787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CEED587-E962-4177-8EB8-5E24A3FE9B6F}"/>
+  <xr:revisionPtr revIDLastSave="296" documentId="8_{9F4C3959-2B33-4558-8BFF-59BF174FA787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7543C4F2-D778-421E-8C4B-D057DBE95F64}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{EA836373-7464-47F7-A280-51CE722A9FD2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EA836373-7464-47F7-A280-51CE722A9FD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4019" uniqueCount="1887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4096" uniqueCount="1922">
   <si>
     <t>Vu le</t>
   </si>
@@ -5702,6 +5702,111 @@
   </si>
   <si>
     <t>Un policier qui fait plaisir, quasiment à huit clos, la confrontation Ventura-Serrault est savoureuse, on est vraiment dans l'intrigue pendant tout le film. Une fin un peu trop hâtive à mon goût mais un bon moment devant ce polar.</t>
+  </si>
+  <si>
+    <t>À bord du Darjeeling Limited</t>
+  </si>
+  <si>
+    <t>Wes Anderson, Roman Coppola, Jason Schwartzman</t>
+  </si>
+  <si>
+    <t>American Empirical Pictures</t>
+  </si>
+  <si>
+    <t>Owen Wilson, Adrien Brody, Jason Schwartzman, Anjelica Huston</t>
+  </si>
+  <si>
+    <t>Randall Poster</t>
+  </si>
+  <si>
+    <t>The Darjeeling Limited</t>
+  </si>
+  <si>
+    <t>Sous le soleil de Satan</t>
+  </si>
+  <si>
+    <t>Maurice Pialat</t>
+  </si>
+  <si>
+    <t>Catholicisme</t>
+  </si>
+  <si>
+    <t>Sylvie Pialat</t>
+  </si>
+  <si>
+    <t>Erato Films, Films A2, Flach Film, Action Films</t>
+  </si>
+  <si>
+    <t>Gérard Depardieu</t>
+  </si>
+  <si>
+    <t>Gérard Depardieu, Sandrine Bonnaire, Maurice Pialat</t>
+  </si>
+  <si>
+    <t>Henri Dutilleux</t>
+  </si>
+  <si>
+    <t>1987 : Palme d'or</t>
+  </si>
+  <si>
+    <t>Hana-bi</t>
+  </si>
+  <si>
+    <t>Takeshi Kitano</t>
+  </si>
+  <si>
+    <t>はなび</t>
+  </si>
+  <si>
+    <t>Fin exceptionnelle</t>
+  </si>
+  <si>
+    <t>Drame, Yakuza</t>
+  </si>
+  <si>
+    <t>Bandai Visual, Office Kitano, Tokyo FM, TV Tokyo</t>
+  </si>
+  <si>
+    <t>Beat Takeshi</t>
+  </si>
+  <si>
+    <t>Beat Takeshi, Kayoko Kishimoto, Ren Ôsugi, Susumu Terajima</t>
+  </si>
+  <si>
+    <t>Un superbe film. Peut-être un peu dommage de l'avoir regardé un peu fatigué car il est profond et doté de beaucoup de symbolisme. La bande-son est magistrale et la scène de fin m'a vraiment marquée. Hâte de le revoir dans de meilleures conditions</t>
+  </si>
+  <si>
+    <t>Léon</t>
+  </si>
+  <si>
+    <t>Luc Besson</t>
+  </si>
+  <si>
+    <t>Thriller, Drame</t>
+  </si>
+  <si>
+    <t>Les Films du Dauphin, Gaumont</t>
+  </si>
+  <si>
+    <t>Jean Reno, Natalie Portman, Gary Oldman, Danny Aiello</t>
+  </si>
+  <si>
+    <t>Natalie Portman</t>
+  </si>
+  <si>
+    <t>Éric Serra</t>
+  </si>
+  <si>
+    <t>Pathé Beaugrenelle</t>
+  </si>
+  <si>
+    <t>C'est très divertissant, on est vraiment pris du début à la fin. Le duo Portman-Reno est excellent, les scènes d'actions sont réussies, bref un très bon moment sans prise de tête.</t>
+  </si>
+  <si>
+    <t>La première partie dans le train avec ces 3 frères un peu tocards sur les bords est vraiment très sympa. Une fois qu'ils ne sont plus dans le train, le film perd tout son intérêt et en devient même long. C'est dommage car il y avait vraiment un potentiel avec ce trio d'acteurs et Wes Anderson à la baguette.</t>
+  </si>
+  <si>
+    <t>Le film n'est pas mauvais, mais il est si déroutant. Je n'ai rien compris, mais n'ai pas passé un mauvais moment pour autant. A revoir pour me faire un avis sur cette palme d'or si controversée.</t>
   </si>
 </sst>
 </file>
@@ -5821,8 +5926,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB487961-E1B1-4422-B2F4-01613B72541E}" name="Tableau2" displayName="Tableau2" ref="A1:BB204" totalsRowShown="0">
-  <autoFilter ref="A1:BB204" xr:uid="{CB487961-E1B1-4422-B2F4-01613B72541E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB487961-E1B1-4422-B2F4-01613B72541E}" name="Tableau2" displayName="Tableau2" ref="A1:BB208" totalsRowShown="0">
+  <autoFilter ref="A1:BB208" xr:uid="{CB487961-E1B1-4422-B2F4-01613B72541E}"/>
   <tableColumns count="54">
     <tableColumn id="1" xr3:uid="{476A81A7-910A-4B0E-9F76-385BE82BE5FF}" name="Vu le" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{05F37C7C-BD57-432A-9FEB-88B0E6B98850}" name="Nom"/>
@@ -6200,13 +6305,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A24E7E-E710-4B51-A647-CB56244F010B}">
-  <dimension ref="A1:BB204"/>
+  <dimension ref="A1:BB208"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C188" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C185" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AV205" sqref="AV205"/>
+      <selection pane="bottomRight" activeCell="AQ206" sqref="AQ206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29926,6 +30031,458 @@
       </c>
       <c r="BB204" t="s">
         <v>1886</v>
+      </c>
+    </row>
+    <row r="205" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A205" s="9">
+        <v>45796</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D205" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E205">
+        <v>2007</v>
+      </c>
+      <c r="F205" s="1">
+        <v>39526</v>
+      </c>
+      <c r="G205">
+        <v>6.5</v>
+      </c>
+      <c r="H205">
+        <v>6</v>
+      </c>
+      <c r="K205" t="s">
+        <v>76</v>
+      </c>
+      <c r="L205" t="s">
+        <v>76</v>
+      </c>
+      <c r="M205" t="s">
+        <v>48</v>
+      </c>
+      <c r="N205" t="s">
+        <v>48</v>
+      </c>
+      <c r="O205" t="s">
+        <v>862</v>
+      </c>
+      <c r="Q205">
+        <v>91</v>
+      </c>
+      <c r="R205" t="s">
+        <v>1888</v>
+      </c>
+      <c r="T205">
+        <v>0</v>
+      </c>
+      <c r="U205">
+        <v>0</v>
+      </c>
+      <c r="V205" t="s">
+        <v>67</v>
+      </c>
+      <c r="W205" t="s">
+        <v>1889</v>
+      </c>
+      <c r="Y205">
+        <v>16</v>
+      </c>
+      <c r="AG205" t="s">
+        <v>1890</v>
+      </c>
+      <c r="AJ205" t="s">
+        <v>1891</v>
+      </c>
+      <c r="AK205">
+        <v>7.6</v>
+      </c>
+      <c r="AL205">
+        <v>7</v>
+      </c>
+      <c r="AM205" t="s">
+        <v>527</v>
+      </c>
+      <c r="AN205" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO205" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP205">
+        <v>1</v>
+      </c>
+      <c r="AQ205" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV205">
+        <v>0</v>
+      </c>
+      <c r="AW205">
+        <v>0</v>
+      </c>
+      <c r="AX205">
+        <v>0</v>
+      </c>
+      <c r="AY205">
+        <v>0</v>
+      </c>
+      <c r="AZ205">
+        <v>0</v>
+      </c>
+      <c r="BA205">
+        <v>0</v>
+      </c>
+      <c r="BB205" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="206" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A206" s="9">
+        <v>45801</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1893</v>
+      </c>
+      <c r="D206" t="s">
+        <v>1894</v>
+      </c>
+      <c r="E206">
+        <v>1987</v>
+      </c>
+      <c r="F206" s="1">
+        <v>32022</v>
+      </c>
+      <c r="G206">
+        <v>5</v>
+      </c>
+      <c r="H206">
+        <v>5</v>
+      </c>
+      <c r="J206" t="s">
+        <v>1895</v>
+      </c>
+      <c r="K206" t="s">
+        <v>61</v>
+      </c>
+      <c r="L206" t="s">
+        <v>61</v>
+      </c>
+      <c r="M206" t="s">
+        <v>64</v>
+      </c>
+      <c r="N206" t="s">
+        <v>63</v>
+      </c>
+      <c r="O206" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q206">
+        <v>108</v>
+      </c>
+      <c r="R206" t="s">
+        <v>1896</v>
+      </c>
+      <c r="T206">
+        <v>1</v>
+      </c>
+      <c r="U206">
+        <v>1</v>
+      </c>
+      <c r="V206" t="s">
+        <v>67</v>
+      </c>
+      <c r="W206" t="s">
+        <v>1897</v>
+      </c>
+      <c r="AG206" t="s">
+        <v>1899</v>
+      </c>
+      <c r="AH206" t="s">
+        <v>1898</v>
+      </c>
+      <c r="AJ206" t="s">
+        <v>1900</v>
+      </c>
+      <c r="AK206">
+        <v>7.2</v>
+      </c>
+      <c r="AL206">
+        <v>6.7</v>
+      </c>
+      <c r="AM206" t="s">
+        <v>344</v>
+      </c>
+      <c r="AN206" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO206" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP206">
+        <v>1</v>
+      </c>
+      <c r="AQ206" t="s">
+        <v>167</v>
+      </c>
+      <c r="AT206" t="s">
+        <v>1901</v>
+      </c>
+      <c r="AV206">
+        <v>0</v>
+      </c>
+      <c r="AW206">
+        <v>0</v>
+      </c>
+      <c r="AX206">
+        <v>1</v>
+      </c>
+      <c r="AY206">
+        <v>1</v>
+      </c>
+      <c r="AZ206">
+        <v>0</v>
+      </c>
+      <c r="BA206">
+        <v>7</v>
+      </c>
+      <c r="BB206" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="207" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A207" s="9">
+        <v>45802</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C207" t="s">
+        <v>1904</v>
+      </c>
+      <c r="D207" t="s">
+        <v>1903</v>
+      </c>
+      <c r="E207">
+        <v>1997</v>
+      </c>
+      <c r="F207" s="1">
+        <v>35739</v>
+      </c>
+      <c r="G207">
+        <v>8</v>
+      </c>
+      <c r="H207">
+        <v>8.5</v>
+      </c>
+      <c r="J207" t="s">
+        <v>1905</v>
+      </c>
+      <c r="K207" t="s">
+        <v>1906</v>
+      </c>
+      <c r="L207" t="s">
+        <v>61</v>
+      </c>
+      <c r="M207" t="s">
+        <v>203</v>
+      </c>
+      <c r="N207" t="s">
+        <v>204</v>
+      </c>
+      <c r="O207" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q207">
+        <v>103</v>
+      </c>
+      <c r="R207" t="s">
+        <v>1903</v>
+      </c>
+      <c r="T207">
+        <v>0</v>
+      </c>
+      <c r="U207">
+        <v>0</v>
+      </c>
+      <c r="V207" t="s">
+        <v>67</v>
+      </c>
+      <c r="W207" t="s">
+        <v>1907</v>
+      </c>
+      <c r="Y207">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AG207" t="s">
+        <v>1909</v>
+      </c>
+      <c r="AH207" t="s">
+        <v>1908</v>
+      </c>
+      <c r="AJ207" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK207">
+        <v>8.4</v>
+      </c>
+      <c r="AL207">
+        <v>7.8</v>
+      </c>
+      <c r="AM207" t="s">
+        <v>344</v>
+      </c>
+      <c r="AN207" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO207" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP207">
+        <v>1</v>
+      </c>
+      <c r="AQ207" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV207">
+        <v>0</v>
+      </c>
+      <c r="AW207">
+        <v>0</v>
+      </c>
+      <c r="AX207">
+        <v>0</v>
+      </c>
+      <c r="AY207">
+        <v>0</v>
+      </c>
+      <c r="AZ207">
+        <v>0</v>
+      </c>
+      <c r="BA207">
+        <v>1</v>
+      </c>
+      <c r="BB207" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="208" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A208" s="9">
+        <v>45803</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D208" t="s">
+        <v>1912</v>
+      </c>
+      <c r="E208">
+        <v>1994</v>
+      </c>
+      <c r="F208" s="1">
+        <v>34591</v>
+      </c>
+      <c r="G208">
+        <v>7.5</v>
+      </c>
+      <c r="H208">
+        <v>7.5</v>
+      </c>
+      <c r="K208" t="s">
+        <v>1913</v>
+      </c>
+      <c r="L208" t="s">
+        <v>467</v>
+      </c>
+      <c r="M208" t="s">
+        <v>64</v>
+      </c>
+      <c r="N208" t="s">
+        <v>47</v>
+      </c>
+      <c r="O208" t="s">
+        <v>48</v>
+      </c>
+      <c r="P208" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q208">
+        <v>110</v>
+      </c>
+      <c r="R208" t="s">
+        <v>1912</v>
+      </c>
+      <c r="T208">
+        <v>0</v>
+      </c>
+      <c r="U208">
+        <v>0</v>
+      </c>
+      <c r="V208" t="s">
+        <v>67</v>
+      </c>
+      <c r="W208" t="s">
+        <v>1914</v>
+      </c>
+      <c r="X208">
+        <v>17.5</v>
+      </c>
+      <c r="AG208" t="s">
+        <v>1915</v>
+      </c>
+      <c r="AH208" t="s">
+        <v>1916</v>
+      </c>
+      <c r="AJ208" t="s">
+        <v>1917</v>
+      </c>
+      <c r="AK208">
+        <v>8</v>
+      </c>
+      <c r="AL208">
+        <v>7.4</v>
+      </c>
+      <c r="AM208" t="s">
+        <v>1918</v>
+      </c>
+      <c r="AN208" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO208" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP208">
+        <v>1</v>
+      </c>
+      <c r="AQ208" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV208">
+        <v>0</v>
+      </c>
+      <c r="AW208">
+        <v>0</v>
+      </c>
+      <c r="AX208">
+        <v>0</v>
+      </c>
+      <c r="AY208">
+        <v>0</v>
+      </c>
+      <c r="AZ208">
+        <v>0</v>
+      </c>
+      <c r="BA208">
+        <v>7</v>
+      </c>
+      <c r="BB208" t="s">
+        <v>1919</v>
       </c>
     </row>
   </sheetData>

--- a/BDD_FILMS.xlsx
+++ b/BDD_FILMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1da722ffa659bf72/CINEMA/STREAMLIT_CINE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="296" documentId="8_{9F4C3959-2B33-4558-8BFF-59BF174FA787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7543C4F2-D778-421E-8C4B-D057DBE95F64}"/>
+  <xr:revisionPtr revIDLastSave="371" documentId="8_{9F4C3959-2B33-4558-8BFF-59BF174FA787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B6A79A5-FC22-4615-8366-7698B13E480E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EA836373-7464-47F7-A280-51CE722A9FD2}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4096" uniqueCount="1922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4135" uniqueCount="1941">
   <si>
     <t>Vu le</t>
   </si>
@@ -5807,6 +5807,63 @@
   </si>
   <si>
     <t>Le film n'est pas mauvais, mais il est si déroutant. Je n'ai rien compris, mais n'ai pas passé un mauvais moment pour autant. A revoir pour me faire un avis sur cette palme d'or si controversée.</t>
+  </si>
+  <si>
+    <t>Les Contes de la lune vague après la pluie</t>
+  </si>
+  <si>
+    <t>Ugetsu monogatari</t>
+  </si>
+  <si>
+    <t>Kenji Mizoguchi</t>
+  </si>
+  <si>
+    <t>Drame, Guerre, Fantastique</t>
+  </si>
+  <si>
+    <t>Matsutarō Kawaguchi, Akinari Ueda, Yoshikata Yoda</t>
+  </si>
+  <si>
+    <t>Daiei</t>
+  </si>
+  <si>
+    <t>Masayuki Mori, Machiko Kyō, Kinuyo Tanaka, Mitsuko Mito</t>
+  </si>
+  <si>
+    <t>Fumio Hayasaka, Tamekichi Mochizuki, Ichirō Saitō</t>
+  </si>
+  <si>
+    <t>J'ai pas été dedans. J'ai été quand même plus captivé sur le dernier tiers mais globalement je me suis ennuyé et j'ai eu du mal à me concentré pour identifier les personnages ainsi que les intrigues. Ce film fait partie des 10 préférés de Scorsese et la critique est unanime. DOnc pas le choic, à revoir !</t>
+  </si>
+  <si>
+    <t>La Grande Bouffe</t>
+  </si>
+  <si>
+    <t>Marco Ferreri</t>
+  </si>
+  <si>
+    <t>La grande abbuffata</t>
+  </si>
+  <si>
+    <t>Nourriture</t>
+  </si>
+  <si>
+    <t>Marcello Mastroianni, Philippe Noiret, Michel Piccoli, Ugo Tognazzi, Andréa Ferréol</t>
+  </si>
+  <si>
+    <t>Francis Blanche</t>
+  </si>
+  <si>
+    <t>Mara Films, Capitolina Produzioni Cinematografiche, Films 66</t>
+  </si>
+  <si>
+    <t>Marco Ferreri, Rafael Azcona, Francis Blanche</t>
+  </si>
+  <si>
+    <t>1973 : prix FIPRESCI</t>
+  </si>
+  <si>
+    <t>Un film délirant ! Une orgie de nourriture à ne pas regarder avec un petit peu d'appétit (comme j'avais). La décadence est bien retranscrise à l'écran mais le film possède quelques longueurs. Le quatuor d'acteur est très bon mais je ne sais pas si j'aurais envie de revoir ce film.</t>
   </si>
 </sst>
 </file>
@@ -5926,8 +5983,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB487961-E1B1-4422-B2F4-01613B72541E}" name="Tableau2" displayName="Tableau2" ref="A1:BB208" totalsRowShown="0">
-  <autoFilter ref="A1:BB208" xr:uid="{CB487961-E1B1-4422-B2F4-01613B72541E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB487961-E1B1-4422-B2F4-01613B72541E}" name="Tableau2" displayName="Tableau2" ref="A1:BB210" totalsRowShown="0">
+  <autoFilter ref="A1:BB210" xr:uid="{CB487961-E1B1-4422-B2F4-01613B72541E}"/>
   <tableColumns count="54">
     <tableColumn id="1" xr3:uid="{476A81A7-910A-4B0E-9F76-385BE82BE5FF}" name="Vu le" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{05F37C7C-BD57-432A-9FEB-88B0E6B98850}" name="Nom"/>
@@ -6305,13 +6362,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A24E7E-E710-4B51-A647-CB56244F010B}">
-  <dimension ref="A1:BB208"/>
+  <dimension ref="A1:BB210"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C185" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AQ206" sqref="AQ206"/>
+      <selection pane="bottomRight" activeCell="D208" sqref="D208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30483,6 +30540,229 @@
       </c>
       <c r="BB208" t="s">
         <v>1919</v>
+      </c>
+    </row>
+    <row r="209" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A209" s="9">
+        <v>45806</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D209" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E209">
+        <v>1953</v>
+      </c>
+      <c r="F209" s="1">
+        <v>21627</v>
+      </c>
+      <c r="G209">
+        <v>5</v>
+      </c>
+      <c r="H209">
+        <v>5</v>
+      </c>
+      <c r="K209" t="s">
+        <v>1925</v>
+      </c>
+      <c r="L209" t="s">
+        <v>61</v>
+      </c>
+      <c r="M209" t="s">
+        <v>203</v>
+      </c>
+      <c r="N209" t="s">
+        <v>204</v>
+      </c>
+      <c r="O209" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q209">
+        <v>97</v>
+      </c>
+      <c r="R209" t="s">
+        <v>1926</v>
+      </c>
+      <c r="T209">
+        <v>1</v>
+      </c>
+      <c r="U209">
+        <v>1</v>
+      </c>
+      <c r="V209" t="s">
+        <v>56</v>
+      </c>
+      <c r="W209" t="s">
+        <v>1927</v>
+      </c>
+      <c r="AG209" t="s">
+        <v>1928</v>
+      </c>
+      <c r="AJ209" t="s">
+        <v>1929</v>
+      </c>
+      <c r="AK209">
+        <v>8.6</v>
+      </c>
+      <c r="AL209">
+        <v>7.9</v>
+      </c>
+      <c r="AM209" t="s">
+        <v>344</v>
+      </c>
+      <c r="AN209" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO209" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP209">
+        <v>1</v>
+      </c>
+      <c r="AQ209" t="s">
+        <v>167</v>
+      </c>
+      <c r="AV209">
+        <v>0</v>
+      </c>
+      <c r="AW209">
+        <v>1</v>
+      </c>
+      <c r="AX209">
+        <v>0</v>
+      </c>
+      <c r="AY209">
+        <v>0</v>
+      </c>
+      <c r="AZ209">
+        <v>0</v>
+      </c>
+      <c r="BA209">
+        <v>0</v>
+      </c>
+      <c r="BB209" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="210" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A210" s="9">
+        <v>45808</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D210" t="s">
+        <v>1932</v>
+      </c>
+      <c r="E210">
+        <v>1973</v>
+      </c>
+      <c r="F210" s="1">
+        <v>26801</v>
+      </c>
+      <c r="G210">
+        <v>6.5</v>
+      </c>
+      <c r="H210">
+        <v>6.5</v>
+      </c>
+      <c r="J210" t="s">
+        <v>1934</v>
+      </c>
+      <c r="K210" t="s">
+        <v>76</v>
+      </c>
+      <c r="L210" t="s">
+        <v>76</v>
+      </c>
+      <c r="M210" t="s">
+        <v>712</v>
+      </c>
+      <c r="N210" t="s">
+        <v>64</v>
+      </c>
+      <c r="O210" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q210">
+        <v>130</v>
+      </c>
+      <c r="R210" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S210" t="s">
+        <v>1936</v>
+      </c>
+      <c r="T210">
+        <v>0</v>
+      </c>
+      <c r="U210">
+        <v>0</v>
+      </c>
+      <c r="V210" t="s">
+        <v>67</v>
+      </c>
+      <c r="W210" t="s">
+        <v>1937</v>
+      </c>
+      <c r="AG210" t="s">
+        <v>1935</v>
+      </c>
+      <c r="AJ210" t="s">
+        <v>362</v>
+      </c>
+      <c r="AK210">
+        <v>7.2</v>
+      </c>
+      <c r="AL210">
+        <v>6.9</v>
+      </c>
+      <c r="AM210" t="s">
+        <v>344</v>
+      </c>
+      <c r="AN210" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO210" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP210">
+        <v>1</v>
+      </c>
+      <c r="AQ210" t="s">
+        <v>167</v>
+      </c>
+      <c r="AT210" t="s">
+        <v>1939</v>
+      </c>
+      <c r="AV210">
+        <v>0</v>
+      </c>
+      <c r="AW210">
+        <v>0</v>
+      </c>
+      <c r="AX210">
+        <v>1</v>
+      </c>
+      <c r="AY210">
+        <v>1</v>
+      </c>
+      <c r="AZ210">
+        <v>0</v>
+      </c>
+      <c r="BA210">
+        <v>0</v>
+      </c>
+      <c r="BB210" t="s">
+        <v>1940</v>
       </c>
     </row>
   </sheetData>

--- a/BDD_FILMS.xlsx
+++ b/BDD_FILMS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1da722ffa659bf72/CINEMA/STREAMLIT_CINE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1DA722FFA659BF72/CINEMA/STREAMLIT_CINE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="371" documentId="8_{9F4C3959-2B33-4558-8BFF-59BF174FA787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B6A79A5-FC22-4615-8366-7698B13E480E}"/>
+  <xr:revisionPtr revIDLastSave="751" documentId="8_{9F4C3959-2B33-4558-8BFF-59BF174FA787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{317B2413-14A2-4CCB-9A10-05261DF22BA8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EA836373-7464-47F7-A280-51CE722A9FD2}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4135" uniqueCount="1941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4320" uniqueCount="2011">
   <si>
     <t>Vu le</t>
   </si>
@@ -5864,6 +5864,216 @@
   </si>
   <si>
     <t>Un film délirant ! Une orgie de nourriture à ne pas regarder avec un petit peu d'appétit (comme j'avais). La décadence est bien retranscrise à l'écran mais le film possède quelques longueurs. Le quatuor d'acteur est très bon mais je ne sais pas si j'aurais envie de revoir ce film.</t>
+  </si>
+  <si>
+    <t>La Venue de l'avenir</t>
+  </si>
+  <si>
+    <t>Ce qui me meut</t>
+  </si>
+  <si>
+    <t>Le Péril jeune</t>
+  </si>
+  <si>
+    <t>Les Garçons et Guillaume, à table !</t>
+  </si>
+  <si>
+    <t>Before Sunrise</t>
+  </si>
+  <si>
+    <t>Mean Streets</t>
+  </si>
+  <si>
+    <t>Harmonium</t>
+  </si>
+  <si>
+    <t>Le Prénom</t>
+  </si>
+  <si>
+    <t>Cédric Klapisch, Santiago Amigorena</t>
+  </si>
+  <si>
+    <t>Suzanne Lindon, Abraham Wapler, Vincent Macaigne, Julia Piaton, Zinedine Soualem, Vassili Schneider, Paul Kircher</t>
+  </si>
+  <si>
+    <t>Rob</t>
+  </si>
+  <si>
+    <t>Louis G</t>
+  </si>
+  <si>
+    <t>Un film sympathique qui fait de nombreux allers-retours entre présent et fin du XIXème siècle, les scènes tournées entre Paris et la Normandie sont vraiment agréables. L'histoire est banale mais on passe un bon moment à regarder ces personnages dans leur époques respectives</t>
+  </si>
+  <si>
+    <t>Richard Linklater</t>
+  </si>
+  <si>
+    <t>What if amoureux</t>
+  </si>
+  <si>
+    <t>Autriche</t>
+  </si>
+  <si>
+    <t>Vienne</t>
+  </si>
+  <si>
+    <t>Richard Linklater, Kim Krizan</t>
+  </si>
+  <si>
+    <t>Castle Rock Entertainment, Columbia Pictures</t>
+  </si>
+  <si>
+    <t>Ethan Hawke, Julie Delpy</t>
+  </si>
+  <si>
+    <t>Fred Frith</t>
+  </si>
+  <si>
+    <t>Hôtel Chine</t>
+  </si>
+  <si>
+    <t>Je ne comprends pas le succès de ce film. Ce n'est pas mauvais, c'est juste moyen. On a le sentiment que c'est une succession de mini scènes remplies de banalités entre deux personnages que je n'ai pas trouvé attachants. J'adore ce type de film, cf Past Lives, mais là ça n'a pas du tout pris, j'ai trouvé cela très surfait. Cependant, les scènes tournées à Viennes sont très sympathiques.</t>
+  </si>
+  <si>
+    <t>Guillaume Gallienne</t>
+  </si>
+  <si>
+    <t>LGM Productions, Rectangle Productions, Don't Be Shy Productions, France 3 Cinéma, Gaumont, uFilm, Nexus Factory, Cinémage 7</t>
+  </si>
+  <si>
+    <t>Guillaume Gallienne, Françoise Fabian, Nanou Garcia, Yves Jacques, André Marcon</t>
+  </si>
+  <si>
+    <t>Marie-Jeanne Serero</t>
+  </si>
+  <si>
+    <t>2014 : film, premier film, acteur (Guillaume Gallienne), adaptation, montage</t>
+  </si>
+  <si>
+    <t>Ca passe… On se tape parfois des barres, mais pas trop mon style de comédie. Le film est assez oubliable et a sûrement eu tous ces prix au vu du contexte politique de 2013 avec les manifs pour tous</t>
+  </si>
+  <si>
+    <t>A l'école</t>
+  </si>
+  <si>
+    <t>Cédric Klapisch, Santiago Amigorena, Alexis Galmot, Daniel Thieux</t>
+  </si>
+  <si>
+    <t>La Sept, Vertigo Films</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romain Duris, Vincent Elbaz, Joachim Lombard, Julien Lambroschini, Nicolas Koretzky, Élodie Bouchez, Hélène de Fougerolles, </t>
+  </si>
+  <si>
+    <t>Joël Daydé</t>
+  </si>
+  <si>
+    <t>Le film oscille entre du très bon et du moyen. Des scènes vraiment marrantes avec ces 5 lycéens vraiment attachants dont Romain Duris qui joue son premier rôle au cinéma. D'autres moments du films moins subtils, un peu plus "amateurs". Mais je garde un bon souvenir de ce visionnage et je ne serai pas contre de le revoir.</t>
+  </si>
+  <si>
+    <t>Martin Scorsese, Mardik Martin</t>
+  </si>
+  <si>
+    <t>Warner Bros., Taplin-Perry-Scorsese Productions</t>
+  </si>
+  <si>
+    <t>Harvey Keitel, Robert De Niro, David Proval, Amy Robinson, Richard Romanus, Cesare Danova</t>
+  </si>
+  <si>
+    <t>C'est sympa de voir les prémices de la carrière de Scorsese, quelques moments de haute voltige durant le film notamment les scènes avec De Niro. On passe un bon moment sans que ça soit un grand film. Dommage que la fin soit aussi abrupte;</t>
+  </si>
+  <si>
+    <t>Kōji Fukada</t>
+  </si>
+  <si>
+    <t>淵に立つ</t>
+  </si>
+  <si>
+    <t>Condor Distribution</t>
+  </si>
+  <si>
+    <t>Kanji Furutachi, Mariko Tsutsui, Tadanobu Asano, Momone Shinokawa</t>
+  </si>
+  <si>
+    <t>2016 : Un certain regard</t>
+  </si>
+  <si>
+    <t>Quel excellent film ! J'étais dedans du début à la fin. La puissance du film provient du peu de mots utilisés pour décrire l'horreur de la situation. Je pense sincèrement que le film aurait mérité de durer 3 heures pour traiter en profondeur les personnages. Une fin un peu trop abrupte sûrement mais un top film.</t>
+  </si>
+  <si>
+    <t>Patrick Bruel</t>
+  </si>
+  <si>
+    <t>Patrick Bruel, Valérie Benguigui, Charles Berling, Guillaume de Tonquédec, Judith El Zein</t>
+  </si>
+  <si>
+    <t>2013 : acteur dans un second rôle (Guillaume de Tonquédec), actrice dans un second rôle (Valérie Benguigui)</t>
+  </si>
+  <si>
+    <t>Toujours aussi drôle même à 25 ans ! Des répliques qu'on comprend mieux avec l'âge, on se tape constamment des barres. Les 5 personnages sont excellements bien joués et notamment celui de Bruel. Bref un très bon huit clos que je regarderai plus tard à coup sûr.</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Joseph Kosinski</t>
+  </si>
+  <si>
+    <t>Drame, Sport</t>
+  </si>
+  <si>
+    <t>Ehren Kruger</t>
+  </si>
+  <si>
+    <t>Copper, Dawn Apollo Films, Jerry Bruckheimer Films, Plan B Entertainment</t>
+  </si>
+  <si>
+    <t>Brad Pitt, Damson Idris, Kerry Condon, Javier Bardem</t>
+  </si>
+  <si>
+    <t>Ciné Ningbo</t>
+  </si>
+  <si>
+    <t>La réalisation, les courses et le jeu d'acteur sont la raison de voir le film. A part ça, celui-ci est sur-romancée ce qui ne facilite pas l'immersion. Un blockbuster à l'américiane qui vaut le coup d'être vu une fois, mais pas deux.</t>
+  </si>
+  <si>
+    <t>Une part manquante</t>
+  </si>
+  <si>
+    <t>Guillaume Senez</t>
+  </si>
+  <si>
+    <t>Guillaume Senez, Jean Denizot</t>
+  </si>
+  <si>
+    <t>Les Films Pelléas, Savage Film, Versus Production</t>
+  </si>
+  <si>
+    <t>Romain Duris, Mei Cirne-Masuki, Judith Chemla</t>
+  </si>
+  <si>
+    <t>Olivier Marguerit</t>
+  </si>
+  <si>
+    <t>Le film aurait pu être vraiment sympa mais je n'ai pas aimé le rythme, ni le jeu d'acteur. On ne voit pas tant que ça Tokyo en plus. Une succession de scènes sans grande émotion selon moi.</t>
+  </si>
+  <si>
+    <t>Catch Me If You Can</t>
+  </si>
+  <si>
+    <t>Arrête-moi si tu peux</t>
+  </si>
+  <si>
+    <t>Jeff Nathanson</t>
+  </si>
+  <si>
+    <t>Amblin Entertainment, Kemp Company, The Kennedy/Marshall Company, Parkes/MacDonald Image Nation, Splendid Pictures, Dreamworks Pictures, Muse Entertainment Enterprises</t>
+  </si>
+  <si>
+    <t>Leonardo DiCaprio, Tom Hanks, Christopher Walken, Amy Adams, Nathalie Baye</t>
+  </si>
+  <si>
+    <t>C'est divertissant, on ne sent pas le temps passer, le duo DiCaprio/Hanks est très bon. Le fait que ce soit une histoire vraie rajoute de l'intérêt au film. On a cependant pas affaire non plus un grand film, la structure est classique, c'est très romancé, mais on passe un bon moment et c'est le principal !</t>
   </si>
 </sst>
 </file>
@@ -5902,7 +6112,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5927,6 +6137,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -5940,7 +6156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -5954,6 +6170,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5983,8 +6200,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB487961-E1B1-4422-B2F4-01613B72541E}" name="Tableau2" displayName="Tableau2" ref="A1:BB210" totalsRowShown="0">
-  <autoFilter ref="A1:BB210" xr:uid="{CB487961-E1B1-4422-B2F4-01613B72541E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB487961-E1B1-4422-B2F4-01613B72541E}" name="Tableau2" displayName="Tableau2" ref="A1:BB220" totalsRowShown="0">
+  <autoFilter ref="A1:BB220" xr:uid="{CB487961-E1B1-4422-B2F4-01613B72541E}"/>
   <tableColumns count="54">
     <tableColumn id="1" xr3:uid="{476A81A7-910A-4B0E-9F76-385BE82BE5FF}" name="Vu le" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{05F37C7C-BD57-432A-9FEB-88B0E6B98850}" name="Nom"/>
@@ -6362,13 +6579,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A24E7E-E710-4B51-A647-CB56244F010B}">
-  <dimension ref="A1:BB210"/>
+  <dimension ref="A1:BB220"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C185" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C196" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D208" sqref="D208"/>
+      <selection pane="bottomRight" activeCell="C226" sqref="C226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30687,7 +30904,7 @@
         <v>712</v>
       </c>
       <c r="N210" t="s">
-        <v>64</v>
+        <v>204</v>
       </c>
       <c r="O210" t="s">
         <v>64</v>
@@ -30763,6 +30980,1100 @@
       </c>
       <c r="BB210" t="s">
         <v>1940</v>
+      </c>
+    </row>
+    <row r="211" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A211" s="9">
+        <v>45813</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1941</v>
+      </c>
+      <c r="D211" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E211">
+        <v>2025</v>
+      </c>
+      <c r="F211" s="1">
+        <v>45799</v>
+      </c>
+      <c r="G211">
+        <v>6.5</v>
+      </c>
+      <c r="H211">
+        <v>6.5</v>
+      </c>
+      <c r="K211" t="s">
+        <v>76</v>
+      </c>
+      <c r="L211" t="s">
+        <v>76</v>
+      </c>
+      <c r="M211" t="s">
+        <v>64</v>
+      </c>
+      <c r="N211" t="s">
+        <v>63</v>
+      </c>
+      <c r="O211" t="s">
+        <v>64</v>
+      </c>
+      <c r="P211" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q211">
+        <v>126</v>
+      </c>
+      <c r="R211" t="s">
+        <v>1949</v>
+      </c>
+      <c r="T211">
+        <v>0</v>
+      </c>
+      <c r="U211">
+        <v>0</v>
+      </c>
+      <c r="V211" t="s">
+        <v>67</v>
+      </c>
+      <c r="W211" t="s">
+        <v>1942</v>
+      </c>
+      <c r="X211">
+        <v>15.6</v>
+      </c>
+      <c r="AG211" t="s">
+        <v>1950</v>
+      </c>
+      <c r="AJ211" t="s">
+        <v>1951</v>
+      </c>
+      <c r="AM211" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN211" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO211" t="s">
+        <v>1952</v>
+      </c>
+      <c r="AP211">
+        <v>1</v>
+      </c>
+      <c r="AQ211" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS211" s="13"/>
+      <c r="AT211" s="13"/>
+      <c r="AU211" s="13"/>
+      <c r="AV211" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW211" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX211">
+        <v>0</v>
+      </c>
+      <c r="AY211">
+        <v>1</v>
+      </c>
+      <c r="AZ211" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA211">
+        <v>0</v>
+      </c>
+      <c r="BB211" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="212" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A212" s="9">
+        <v>45823</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D212" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E212">
+        <v>1995</v>
+      </c>
+      <c r="F212" s="1">
+        <v>34787</v>
+      </c>
+      <c r="G212">
+        <v>5</v>
+      </c>
+      <c r="H212">
+        <v>5</v>
+      </c>
+      <c r="J212" t="s">
+        <v>1955</v>
+      </c>
+      <c r="K212" t="s">
+        <v>151</v>
+      </c>
+      <c r="L212" t="s">
+        <v>151</v>
+      </c>
+      <c r="M212" t="s">
+        <v>48</v>
+      </c>
+      <c r="N212" t="s">
+        <v>47</v>
+      </c>
+      <c r="O212" t="s">
+        <v>1956</v>
+      </c>
+      <c r="P212" t="s">
+        <v>1957</v>
+      </c>
+      <c r="Q212">
+        <v>105</v>
+      </c>
+      <c r="R212" t="s">
+        <v>1958</v>
+      </c>
+      <c r="T212">
+        <v>0</v>
+      </c>
+      <c r="U212">
+        <v>0</v>
+      </c>
+      <c r="V212" t="s">
+        <v>67</v>
+      </c>
+      <c r="W212" t="s">
+        <v>1959</v>
+      </c>
+      <c r="Y212">
+        <v>2.5</v>
+      </c>
+      <c r="AG212" t="s">
+        <v>1960</v>
+      </c>
+      <c r="AJ212" t="s">
+        <v>1961</v>
+      </c>
+      <c r="AK212">
+        <v>8.6</v>
+      </c>
+      <c r="AL212">
+        <v>7.3</v>
+      </c>
+      <c r="AM212" t="s">
+        <v>1962</v>
+      </c>
+      <c r="AN212" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO212" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP212">
+        <v>1</v>
+      </c>
+      <c r="AQ212" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV212">
+        <v>0</v>
+      </c>
+      <c r="AW212">
+        <v>0</v>
+      </c>
+      <c r="AX212">
+        <v>0</v>
+      </c>
+      <c r="AY212">
+        <v>0</v>
+      </c>
+      <c r="AZ212">
+        <v>0</v>
+      </c>
+      <c r="BA212">
+        <v>0</v>
+      </c>
+      <c r="BB212" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="213" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A213" s="9">
+        <v>45825</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1944</v>
+      </c>
+      <c r="D213" t="s">
+        <v>1964</v>
+      </c>
+      <c r="E213">
+        <v>2013</v>
+      </c>
+      <c r="F213" s="1">
+        <v>41598</v>
+      </c>
+      <c r="G213">
+        <v>5.5</v>
+      </c>
+      <c r="H213">
+        <v>5.5</v>
+      </c>
+      <c r="K213" t="s">
+        <v>285</v>
+      </c>
+      <c r="L213" t="s">
+        <v>285</v>
+      </c>
+      <c r="M213" t="s">
+        <v>62</v>
+      </c>
+      <c r="N213" t="s">
+        <v>63</v>
+      </c>
+      <c r="O213" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q213">
+        <v>83</v>
+      </c>
+      <c r="R213" t="s">
+        <v>1964</v>
+      </c>
+      <c r="T213">
+        <v>1</v>
+      </c>
+      <c r="U213">
+        <v>0</v>
+      </c>
+      <c r="V213" t="s">
+        <v>67</v>
+      </c>
+      <c r="W213" t="s">
+        <v>1965</v>
+      </c>
+      <c r="X213">
+        <v>7.86</v>
+      </c>
+      <c r="AG213" t="s">
+        <v>1966</v>
+      </c>
+      <c r="AJ213" t="s">
+        <v>1967</v>
+      </c>
+      <c r="AK213">
+        <v>7</v>
+      </c>
+      <c r="AL213">
+        <v>6.5</v>
+      </c>
+      <c r="AM213" t="s">
+        <v>1962</v>
+      </c>
+      <c r="AN213" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO213" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP213">
+        <v>1</v>
+      </c>
+      <c r="AQ213" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU213" t="s">
+        <v>1968</v>
+      </c>
+      <c r="AV213">
+        <v>0</v>
+      </c>
+      <c r="AW213">
+        <v>0</v>
+      </c>
+      <c r="AX213">
+        <v>0</v>
+      </c>
+      <c r="AY213">
+        <v>1</v>
+      </c>
+      <c r="AZ213">
+        <v>5</v>
+      </c>
+      <c r="BA213">
+        <v>10</v>
+      </c>
+      <c r="BB213" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="214" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A214" s="9">
+        <v>45834</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1943</v>
+      </c>
+      <c r="D214" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E214">
+        <v>1994</v>
+      </c>
+      <c r="F214" s="1">
+        <v>34475</v>
+      </c>
+      <c r="G214">
+        <v>6</v>
+      </c>
+      <c r="H214">
+        <v>6.5</v>
+      </c>
+      <c r="J214" t="s">
+        <v>1970</v>
+      </c>
+      <c r="K214" t="s">
+        <v>76</v>
+      </c>
+      <c r="L214" t="s">
+        <v>76</v>
+      </c>
+      <c r="M214" t="s">
+        <v>64</v>
+      </c>
+      <c r="N214" t="s">
+        <v>63</v>
+      </c>
+      <c r="O214" t="s">
+        <v>64</v>
+      </c>
+      <c r="P214" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q214">
+        <v>101</v>
+      </c>
+      <c r="R214" t="s">
+        <v>1971</v>
+      </c>
+      <c r="T214">
+        <v>0</v>
+      </c>
+      <c r="U214">
+        <v>0</v>
+      </c>
+      <c r="V214" t="s">
+        <v>67</v>
+      </c>
+      <c r="W214" t="s">
+        <v>1972</v>
+      </c>
+      <c r="X214">
+        <v>1.4</v>
+      </c>
+      <c r="AG214" t="s">
+        <v>1973</v>
+      </c>
+      <c r="AH214" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ214" t="s">
+        <v>1974</v>
+      </c>
+      <c r="AK214">
+        <v>7.4</v>
+      </c>
+      <c r="AL214">
+        <v>6.9</v>
+      </c>
+      <c r="AM214" t="s">
+        <v>1962</v>
+      </c>
+      <c r="AN214" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO214" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP214">
+        <v>1</v>
+      </c>
+      <c r="AQ214" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV214">
+        <v>0</v>
+      </c>
+      <c r="AW214">
+        <v>0</v>
+      </c>
+      <c r="AX214">
+        <v>0</v>
+      </c>
+      <c r="AY214">
+        <v>0</v>
+      </c>
+      <c r="AZ214">
+        <v>0</v>
+      </c>
+      <c r="BA214">
+        <v>0</v>
+      </c>
+      <c r="BB214" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="215" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A215" s="9">
+        <v>45836</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1946</v>
+      </c>
+      <c r="D215" t="s">
+        <v>170</v>
+      </c>
+      <c r="E215">
+        <v>1973</v>
+      </c>
+      <c r="F215" s="1">
+        <v>27892</v>
+      </c>
+      <c r="G215">
+        <v>7</v>
+      </c>
+      <c r="H215">
+        <v>6.5</v>
+      </c>
+      <c r="K215" t="s">
+        <v>710</v>
+      </c>
+      <c r="L215" t="s">
+        <v>61</v>
+      </c>
+      <c r="M215" t="s">
+        <v>48</v>
+      </c>
+      <c r="N215" t="s">
+        <v>47</v>
+      </c>
+      <c r="O215" t="s">
+        <v>48</v>
+      </c>
+      <c r="P215" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q215">
+        <v>112</v>
+      </c>
+      <c r="R215" t="s">
+        <v>1976</v>
+      </c>
+      <c r="T215">
+        <v>0</v>
+      </c>
+      <c r="U215">
+        <v>0</v>
+      </c>
+      <c r="V215" t="s">
+        <v>67</v>
+      </c>
+      <c r="W215" t="s">
+        <v>1977</v>
+      </c>
+      <c r="Y215">
+        <v>0.5</v>
+      </c>
+      <c r="AG215" t="s">
+        <v>1978</v>
+      </c>
+      <c r="AH215" t="s">
+        <v>626</v>
+      </c>
+      <c r="AK215">
+        <v>7.4</v>
+      </c>
+      <c r="AL215">
+        <v>7.1</v>
+      </c>
+      <c r="AM215" t="s">
+        <v>1962</v>
+      </c>
+      <c r="AN215" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO215" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP215">
+        <v>1</v>
+      </c>
+      <c r="AQ215" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV215">
+        <v>0</v>
+      </c>
+      <c r="AW215">
+        <v>0</v>
+      </c>
+      <c r="AX215">
+        <v>0</v>
+      </c>
+      <c r="AY215">
+        <v>0</v>
+      </c>
+      <c r="AZ215">
+        <v>0</v>
+      </c>
+      <c r="BA215">
+        <v>0</v>
+      </c>
+      <c r="BB215" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="216" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A216" s="9">
+        <v>45844</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C216" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D216" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E216">
+        <v>2016</v>
+      </c>
+      <c r="F216" s="1">
+        <v>42746</v>
+      </c>
+      <c r="G216">
+        <v>8.5</v>
+      </c>
+      <c r="H216">
+        <v>8.5</v>
+      </c>
+      <c r="K216" t="s">
+        <v>61</v>
+      </c>
+      <c r="L216" t="s">
+        <v>61</v>
+      </c>
+      <c r="M216" t="s">
+        <v>1493</v>
+      </c>
+      <c r="N216" t="s">
+        <v>204</v>
+      </c>
+      <c r="O216" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q216">
+        <v>118</v>
+      </c>
+      <c r="R216" t="s">
+        <v>1980</v>
+      </c>
+      <c r="T216">
+        <v>0</v>
+      </c>
+      <c r="U216">
+        <v>0</v>
+      </c>
+      <c r="V216" t="s">
+        <v>67</v>
+      </c>
+      <c r="W216" t="s">
+        <v>1982</v>
+      </c>
+      <c r="AG216" t="s">
+        <v>1983</v>
+      </c>
+      <c r="AK216">
+        <v>7.4</v>
+      </c>
+      <c r="AL216">
+        <v>6.4</v>
+      </c>
+      <c r="AM216" t="s">
+        <v>1962</v>
+      </c>
+      <c r="AN216" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO216" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP216">
+        <v>1</v>
+      </c>
+      <c r="AQ216" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT216" t="s">
+        <v>1984</v>
+      </c>
+      <c r="AV216">
+        <v>0</v>
+      </c>
+      <c r="AW216">
+        <v>0</v>
+      </c>
+      <c r="AX216">
+        <v>1</v>
+      </c>
+      <c r="AY216">
+        <v>1</v>
+      </c>
+      <c r="AZ216">
+        <v>0</v>
+      </c>
+      <c r="BA216">
+        <v>0</v>
+      </c>
+      <c r="BB216" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="217" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A217" s="9">
+        <v>45846</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D217" t="s">
+        <v>932</v>
+      </c>
+      <c r="E217">
+        <v>2012</v>
+      </c>
+      <c r="F217" s="1">
+        <v>41024</v>
+      </c>
+      <c r="G217">
+        <v>7.5</v>
+      </c>
+      <c r="H217">
+        <v>7.5</v>
+      </c>
+      <c r="J217" t="s">
+        <v>1881</v>
+      </c>
+      <c r="K217" t="s">
+        <v>285</v>
+      </c>
+      <c r="L217" t="s">
+        <v>285</v>
+      </c>
+      <c r="M217" t="s">
+        <v>62</v>
+      </c>
+      <c r="N217" t="s">
+        <v>63</v>
+      </c>
+      <c r="O217" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q217">
+        <v>109</v>
+      </c>
+      <c r="R217" t="s">
+        <v>932</v>
+      </c>
+      <c r="T217">
+        <v>1</v>
+      </c>
+      <c r="U217">
+        <v>0</v>
+      </c>
+      <c r="V217" t="s">
+        <v>67</v>
+      </c>
+      <c r="W217" t="s">
+        <v>935</v>
+      </c>
+      <c r="X217">
+        <v>11</v>
+      </c>
+      <c r="AG217" t="s">
+        <v>1987</v>
+      </c>
+      <c r="AH217" t="s">
+        <v>1986</v>
+      </c>
+      <c r="AJ217" t="s">
+        <v>938</v>
+      </c>
+      <c r="AK217">
+        <v>7.6</v>
+      </c>
+      <c r="AL217">
+        <v>6.5</v>
+      </c>
+      <c r="AM217" t="s">
+        <v>1962</v>
+      </c>
+      <c r="AN217" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO217" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP217">
+        <v>3</v>
+      </c>
+      <c r="AQ217" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU217" t="s">
+        <v>1988</v>
+      </c>
+      <c r="AV217">
+        <v>0</v>
+      </c>
+      <c r="AW217">
+        <v>0</v>
+      </c>
+      <c r="AX217">
+        <v>0</v>
+      </c>
+      <c r="AY217">
+        <v>0</v>
+      </c>
+      <c r="AZ217">
+        <v>2</v>
+      </c>
+      <c r="BA217">
+        <v>5</v>
+      </c>
+      <c r="BB217" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="218" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A218" s="9">
+        <v>45850</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1990</v>
+      </c>
+      <c r="D218" t="s">
+        <v>1991</v>
+      </c>
+      <c r="E218">
+        <v>2025</v>
+      </c>
+      <c r="F218" s="1">
+        <v>45833</v>
+      </c>
+      <c r="G218">
+        <v>6</v>
+      </c>
+      <c r="H218">
+        <v>6</v>
+      </c>
+      <c r="K218" t="s">
+        <v>1992</v>
+      </c>
+      <c r="L218" t="s">
+        <v>61</v>
+      </c>
+      <c r="M218" t="s">
+        <v>48</v>
+      </c>
+      <c r="N218" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q218">
+        <v>156</v>
+      </c>
+      <c r="R218" t="s">
+        <v>1993</v>
+      </c>
+      <c r="T218">
+        <v>0</v>
+      </c>
+      <c r="U218">
+        <v>0</v>
+      </c>
+      <c r="V218" t="s">
+        <v>67</v>
+      </c>
+      <c r="W218" t="s">
+        <v>1994</v>
+      </c>
+      <c r="Y218">
+        <v>300</v>
+      </c>
+      <c r="AG218" t="s">
+        <v>1995</v>
+      </c>
+      <c r="AH218" t="s">
+        <v>857</v>
+      </c>
+      <c r="AJ218" t="s">
+        <v>614</v>
+      </c>
+      <c r="AM218" t="s">
+        <v>1996</v>
+      </c>
+      <c r="AN218" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO218" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP218">
+        <v>1</v>
+      </c>
+      <c r="AQ218" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS218" s="13"/>
+      <c r="AT218" s="13"/>
+      <c r="AU218" s="13"/>
+      <c r="AV218" s="13"/>
+      <c r="AW218" s="13"/>
+      <c r="AX218" s="13"/>
+      <c r="AY218" s="13"/>
+      <c r="AZ218" s="13"/>
+      <c r="BA218" s="13"/>
+      <c r="BB218" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="219" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A219" s="9">
+        <v>45858</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D219" t="s">
+        <v>1999</v>
+      </c>
+      <c r="E219">
+        <v>2024</v>
+      </c>
+      <c r="F219" s="1">
+        <v>45609</v>
+      </c>
+      <c r="G219">
+        <v>4.5</v>
+      </c>
+      <c r="H219">
+        <v>4.5</v>
+      </c>
+      <c r="K219" t="s">
+        <v>61</v>
+      </c>
+      <c r="L219" t="s">
+        <v>61</v>
+      </c>
+      <c r="M219" t="s">
+        <v>62</v>
+      </c>
+      <c r="N219" t="s">
+        <v>63</v>
+      </c>
+      <c r="O219" t="s">
+        <v>203</v>
+      </c>
+      <c r="P219" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q219">
+        <v>98</v>
+      </c>
+      <c r="R219" t="s">
+        <v>2000</v>
+      </c>
+      <c r="T219">
+        <v>0</v>
+      </c>
+      <c r="U219">
+        <v>0</v>
+      </c>
+      <c r="V219" t="s">
+        <v>67</v>
+      </c>
+      <c r="W219" t="s">
+        <v>2001</v>
+      </c>
+      <c r="X219">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AG219" t="s">
+        <v>2002</v>
+      </c>
+      <c r="AJ219" t="s">
+        <v>2003</v>
+      </c>
+      <c r="AK219">
+        <v>7</v>
+      </c>
+      <c r="AL219">
+        <v>6.6</v>
+      </c>
+      <c r="AM219" t="s">
+        <v>1962</v>
+      </c>
+      <c r="AN219" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO219" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP219">
+        <v>1</v>
+      </c>
+      <c r="AQ219" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV219">
+        <v>0</v>
+      </c>
+      <c r="AW219">
+        <v>0</v>
+      </c>
+      <c r="AX219">
+        <v>0</v>
+      </c>
+      <c r="AY219">
+        <v>0</v>
+      </c>
+      <c r="AZ219">
+        <v>0</v>
+      </c>
+      <c r="BA219">
+        <v>0</v>
+      </c>
+      <c r="BB219" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="220" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A220" s="9">
+        <v>45865</v>
+      </c>
+      <c r="B220" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C220" t="s">
+        <v>2005</v>
+      </c>
+      <c r="D220" t="s">
+        <v>701</v>
+      </c>
+      <c r="E220">
+        <v>2002</v>
+      </c>
+      <c r="F220" s="1">
+        <v>37664</v>
+      </c>
+      <c r="G220">
+        <v>7</v>
+      </c>
+      <c r="H220">
+        <v>7</v>
+      </c>
+      <c r="K220" t="s">
+        <v>76</v>
+      </c>
+      <c r="L220" t="s">
+        <v>76</v>
+      </c>
+      <c r="M220" t="s">
+        <v>402</v>
+      </c>
+      <c r="N220" t="s">
+        <v>47</v>
+      </c>
+      <c r="O220" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q220">
+        <v>141</v>
+      </c>
+      <c r="R220" t="s">
+        <v>2007</v>
+      </c>
+      <c r="T220">
+        <v>1</v>
+      </c>
+      <c r="U220">
+        <v>1</v>
+      </c>
+      <c r="V220" t="s">
+        <v>67</v>
+      </c>
+      <c r="W220" t="s">
+        <v>2008</v>
+      </c>
+      <c r="Y220">
+        <v>52</v>
+      </c>
+      <c r="AG220" t="s">
+        <v>2009</v>
+      </c>
+      <c r="AH220" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ220" t="s">
+        <v>707</v>
+      </c>
+      <c r="AK220">
+        <v>8</v>
+      </c>
+      <c r="AL220">
+        <v>7.5</v>
+      </c>
+      <c r="AM220" t="s">
+        <v>1962</v>
+      </c>
+      <c r="AN220" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO220" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP220">
+        <v>1</v>
+      </c>
+      <c r="AQ220" t="s">
+        <v>167</v>
+      </c>
+      <c r="AV220">
+        <v>0</v>
+      </c>
+      <c r="AW220">
+        <v>2</v>
+      </c>
+      <c r="AX220">
+        <v>0</v>
+      </c>
+      <c r="AY220">
+        <v>0</v>
+      </c>
+      <c r="AZ220">
+        <v>0</v>
+      </c>
+      <c r="BA220">
+        <v>0</v>
+      </c>
+      <c r="BB220" t="s">
+        <v>2010</v>
       </c>
     </row>
   </sheetData>
